--- a/resume-dashboard-data.xlsx
+++ b/resume-dashboard-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshiggins\Documents\resume-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC97B8D2-54E2-436D-A9A6-528C430DA6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307D4A70-9EBA-4483-8530-3B4D0E311494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="1" xr2:uid="{362ECB96-7B49-42A9-9E59-5400B169F14F}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="16440" xr2:uid="{362ECB96-7B49-42A9-9E59-5400B169F14F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="21">
   <si>
     <t>Tool</t>
   </si>
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE791AED-B684-46F4-B6BE-5D8BB996E593}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,6 +852,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D32">
     <sortCondition ref="A1:A32"/>
@@ -863,10 +877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40AD3F7-4AE8-4936-AF0C-A04B03E5FAF5}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,18 +1003,18 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1011,7 +1025,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -1025,15 +1039,37 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
-    <sortCondition ref="A1:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
+    <sortCondition ref="A1:A16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
